--- a/cases.xlsx
+++ b/cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="341">
   <si>
     <t>case_id</t>
   </si>
@@ -1680,11 +1680,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="14.25"/>
@@ -2019,6 +2019,29 @@
         <v>306</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="33" customHeight="1">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
     </row>
